--- a/PriceList.xlsx
+++ b/PriceList.xlsx
@@ -16,16 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
-  <si>
-    <t>Katowice</t>
-  </si>
-  <si>
-    <t>Frankfurt</t>
-  </si>
-  <si>
-    <t>Los Angeles</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>x</t>
   </si>
@@ -34,6 +25,33 @@
   </si>
   <si>
     <t>TO</t>
+  </si>
+  <si>
+    <t>Warszawa</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Nowy Jork</t>
+  </si>
+  <si>
+    <t>War&lt;-&gt;Ber</t>
+  </si>
+  <si>
+    <t>War&lt;-&gt;NY</t>
+  </si>
+  <si>
+    <t>Ber&lt;-&gt;NY</t>
+  </si>
+  <si>
+    <t>1-2 or 2-1</t>
+  </si>
+  <si>
+    <t>1-3 or 3-1</t>
+  </si>
+  <si>
+    <t>2-3 or 3-2</t>
   </si>
 </sst>
 </file>
@@ -114,10 +132,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -421,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D15:H19"/>
+  <dimension ref="D15:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,33 +454,33 @@
   </cols>
   <sheetData>
     <row r="15" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="F15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="G17" s="1">
         <v>300</v>
@@ -472,24 +490,24 @@
       </c>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D18" s="3"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F18" s="1">
         <v>300</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
         <v>1500</v>
       </c>
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D19" s="3"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F19" s="1">
         <v>1200</v>
@@ -498,7 +516,40 @@
         <v>1500</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>300</v>
+      </c>
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>1200</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>1500</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
